--- a/ColorCode.xlsx
+++ b/ColorCode.xlsx
@@ -401,15 +401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D16"/>
+  <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -420,7 +420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -430,8 +430,11 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
@@ -441,8 +444,11 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>4</v>
       </c>
@@ -453,7 +459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>5</v>
       </c>
@@ -463,8 +469,11 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>6</v>
       </c>
@@ -474,8 +483,11 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>7</v>
       </c>
@@ -485,8 +497,11 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>8</v>
       </c>
@@ -496,8 +511,11 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>9</v>
       </c>
@@ -508,7 +526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>10</v>
       </c>
@@ -518,28 +536,31 @@
       <c r="D11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>15</v>
       </c>
